--- a/output/SFO_projection_to_CARB.xlsx
+++ b/output/SFO_projection_to_CARB.xlsx
@@ -517,7 +517,7 @@
         <v>2024</v>
       </c>
       <c r="D4">
-        <v>379072</v>
+        <v>387226</v>
       </c>
       <c r="E4">
         <v>20130</v>
@@ -549,7 +549,7 @@
         <v>2025</v>
       </c>
       <c r="D5">
-        <v>402986</v>
+        <v>404151</v>
       </c>
       <c r="E5">
         <v>19873</v>
@@ -581,7 +581,7 @@
         <v>2026</v>
       </c>
       <c r="D6">
-        <v>418558</v>
+        <v>417393</v>
       </c>
       <c r="E6">
         <v>18638</v>
@@ -613,7 +613,7 @@
         <v>2027</v>
       </c>
       <c r="D7">
-        <v>428311</v>
+        <v>426682</v>
       </c>
       <c r="E7">
         <v>18563</v>
@@ -645,7 +645,7 @@
         <v>2028</v>
       </c>
       <c r="D8">
-        <v>435471</v>
+        <v>434026</v>
       </c>
       <c r="E8">
         <v>18751</v>
@@ -677,7 +677,7 @@
         <v>2029</v>
       </c>
       <c r="D9">
-        <v>441464</v>
+        <v>440367</v>
       </c>
       <c r="E9">
         <v>18941</v>
@@ -709,7 +709,7 @@
         <v>2030</v>
       </c>
       <c r="D10">
-        <v>446874</v>
+        <v>446098</v>
       </c>
       <c r="E10">
         <v>19132</v>
@@ -741,7 +741,7 @@
         <v>2031</v>
       </c>
       <c r="D11">
-        <v>451990</v>
+        <v>451468</v>
       </c>
       <c r="E11">
         <v>19325</v>
@@ -773,7 +773,7 @@
         <v>2032</v>
       </c>
       <c r="D12">
-        <v>456960</v>
+        <v>456617</v>
       </c>
       <c r="E12">
         <v>19520</v>
@@ -805,7 +805,7 @@
         <v>2033</v>
       </c>
       <c r="D13">
-        <v>461853</v>
+        <v>461634</v>
       </c>
       <c r="E13">
         <v>19717</v>
@@ -837,7 +837,7 @@
         <v>2034</v>
       </c>
       <c r="D14">
-        <v>466710</v>
+        <v>466570</v>
       </c>
       <c r="E14">
         <v>19916</v>
@@ -869,7 +869,7 @@
         <v>2035</v>
       </c>
       <c r="D15">
-        <v>471545</v>
+        <v>471457</v>
       </c>
       <c r="E15">
         <v>20117</v>
